--- a/public/Excel_example/user/foreign_language_class.xlsx
+++ b/public/Excel_example/user/foreign_language_class.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/public/Excel_example/user/foreign_language_class.xlsx
+++ b/public/Excel_example/user/foreign_language_class.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
